--- a/Ontologia_SUS.xlsx
+++ b/Ontologia_SUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82918EA2-584E-453D-80A0-D721C5FFB863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBA59E7-C0F8-4074-8F44-8E9BA493BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
@@ -8589,8 +8589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AC1531-C87A-4C29-A0CD-F0CD7095C26B}">
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD92"/>
+    <sheetView topLeftCell="A164" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15437,8 +15437,8 @@
   <dimension ref="A1:O235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E223" sqref="E223:E235"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15447,10 +15447,10 @@
     <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.5546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
@@ -26989,13 +26989,14 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="2" customWidth="1"/>
-    <col min="2" max="12" width="8.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" customWidth="1"/>
+    <col min="3" max="12" width="8.5546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="15.109375" style="2" customWidth="1"/>
     <col min="15" max="217" width="2.33203125" style="2" customWidth="1"/>
@@ -27165,9 +27166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62272EF8-F168-46E8-B331-113C6804F082}">
   <dimension ref="A1:O607"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2:O34"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27175,8 +27176,9 @@
     <col min="1" max="1" width="2.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="21" customWidth="1"/>
-    <col min="5" max="7" width="5.88671875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="21" customWidth="1"/>
+    <col min="6" max="7" width="5.88671875" style="21" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="21" customWidth="1"/>
     <col min="9" max="9" width="7" style="21" customWidth="1"/>
     <col min="10" max="13" width="5.77734375" style="21" customWidth="1"/>
